--- a/molecular/data/real_6_smiles_yields_product_2_train.xlsx
+++ b/molecular/data/real_6_smiles_yields_product_2_train.xlsx
@@ -3240,17 +3240,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=CC=C1Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3275,27 +3275,27 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)N=C1)C2=CC=CC=C2Cl</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ClC1=CC=CC(C(Cl)(Cl)Cl)=N1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3320,27 +3320,27 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ClC1=CC=CC(C(Cl)(Cl)CCC2=CC=C(OC)C=C2)=N1</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NCC1=CC=CC2=C1C=CC=C2)=O)=O</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(Cl)N=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(Cl)N=C2</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[H]C(Cl)(Cl)Cl</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C=CC1=CC2=CC=CC=C2C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3410,27 +3410,27 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[H]C(Cl)(Cl)CCC1=CC2=CC=CC=C2C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(C(OC)=O)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3455,34 +3455,30 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(C(OC)=O)C=C2</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(Cl)N=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3500,11 +3496,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(Cl)N=C2</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
@@ -3515,19 +3511,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N[C@@H](CC1=CC=CC=C1)C(OC)=O</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3545,11 +3537,11 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)N[C@@H](CC2=CC=CC=C2)C(OC)=O</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
@@ -3560,12 +3552,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=C(C2=CC=CC=N2)C=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C=CC1=C(C=CN2C(OC(C)(C)C)=O)C2=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3575,7 +3567,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3590,11 +3582,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=C(C=CN2C(OC(C)(C)C)=O)C2=CC=C1)(Cl)Cl)NC3=C(C4=CC=CC=N4)C=CC=C3</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72">
@@ -3605,12 +3597,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)O[C@H]1CCC2C3CCC4=CC(OC)=CC=C4C3CC[C@@]21C</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3635,11 +3627,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)O[C@H]2CCC3C4CCC5=CC(OC)=CC=C5C4CC[C@@]32C</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
@@ -3650,19 +3642,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C(F)(F)F</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3680,11 +3668,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ClC(CCC1=CN=C(OC)C=C1)(Cl)C(F)(F)F</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -3695,12 +3683,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC(C(Cl)(Cl)Cl)=O)CC(OC)=O)N[C@@H](CC1=CC=CC=C1)C(OC)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3725,11 +3713,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC(C(CCC1=CN=C(OC)C=C1)(Cl)Cl)=O)CC(OC)=O)N[C@@H](CC2=CC=CC=C2)C(OC)=O</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
@@ -3740,7 +3728,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CC(OC1)(C)O[C@H]1[C@@H]2[C@H](OC(C3=CC(NC(C(Cl)(Cl)Cl)=O)=CC=C3)=O)[C@@H]4[C@@H](OC(C)(C)O4)O2</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3770,11 +3758,11 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CC(OC1)(C)O[C@H]1[C@@H]2[C@H](OC(C3=CC(NC(C(CCC4=CC=C(C)C=C4)(Cl)Cl)=O)=CC=C3)=O)[C@@H]5[C@@H](OC(C)(C)O5)O2</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
@@ -3785,19 +3773,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)Cl)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3815,11 +3799,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)CCC1=CN=C(OC)C=C1)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -3830,19 +3814,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)Cl)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>C=CCC(OC)=O</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3860,11 +3840,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)CCCC(OC)=O)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
@@ -3875,12 +3855,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N(C/C=C/C1=CC=CC=C1)C2=CC=CC=C2</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N(C/C=C/C1=CC=CC=C1)C2=CC=CC=C2</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3905,34 +3885,30 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)C(CC1=CC=CC=C1)C2)N2C3=CC=CC=C3</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCCC1=CC=CC=N1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3950,34 +3926,30 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NCCC2=CC=CC=N2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N1C(C=CC=C2)=C2CC1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3995,27 +3967,27 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)N2C(C=CC=C3)=C3CC2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>50</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=C2C(C=CC=N2)=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4025,7 +3997,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4040,27 +4012,27 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NC2=C3C(C=CC=N3)=CC=C2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)Cl)=O)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>C=CCCCCCCCC</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4075,7 +4047,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4085,27 +4057,27 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCCCCCCCCC)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=CC=C1SCC2=CC=CC=C2</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C=C(CC)CC</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4130,34 +4102,30 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CC(CC)CC)NC1=CC=CC=C1SCC2=CC=CC=C2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C=CC1=CC(N(C(OC(C)(C)C)=O)C=C2)=C2C=C1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -4175,27 +4143,27 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC(N(C(OC(C)(C)C)=O)C=C2)=C2C=C1)(Cl)Cl)NC3=CC=C(OC)C=C3</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4220,42 +4188,38 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=CC=C1)(Cl)Cl)NC2=CC=C(OC)C=C2</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(C(F)(F)F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4265,34 +4229,30 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NC2=CC=C(C(F)(F)F)C=C2</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -4300,7 +4260,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4310,37 +4270,33 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>O=CN(C)C</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4355,27 +4311,27 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4400,27 +4356,27 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4430,7 +4386,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CC#N</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4445,27 +4401,27 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>60</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4490,32 +4446,32 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>O=P(O)(O[Na])O</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4535,30 +4491,34 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -4576,30 +4536,30 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -4617,32 +4577,32 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4655,20 +4615,24 @@
           <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>SC1=CC=CC=C1</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4678,14 +4642,10 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -4703,17 +4663,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4723,12 +4683,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4748,32 +4708,32 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CN1C([BH-](C#N)C#N)=[N+](C)C=C1</t>
+          <t>[BH3-]C1=[N+](C)C=CN1C</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4793,32 +4753,32 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4838,42 +4798,38 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[BH3-][N+]1=CC=C(C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4883,42 +4839,42 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[BH3-]C1=[N+](C)C=CN1C</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4928,11 +4884,11 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -4943,22 +4899,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4966,36 +4918,40 @@
           <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>SC1=CC=CC=C1</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5010,37 +4966,33 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5055,27 +5007,27 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5085,12 +5037,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5100,27 +5052,27 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5130,12 +5082,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5145,17 +5097,17 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5175,7 +5127,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5194,13 +5146,13 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5210,17 +5162,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5235,17 +5183,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5255,14 +5203,10 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -5280,17 +5224,17 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5300,7 +5244,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5310,12 +5254,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5325,17 +5269,17 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5345,7 +5289,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5355,12 +5299,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5370,27 +5314,27 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5400,7 +5344,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5415,30 +5359,34 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -5446,7 +5394,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5456,27 +5404,27 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5491,7 +5439,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5501,17 +5449,17 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5521,10 +5469,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -5542,17 +5494,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>68.59999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5562,22 +5514,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5587,17 +5535,17 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5607,7 +5555,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -5628,7 +5576,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -5638,7 +5586,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5648,7 +5596,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5658,12 +5606,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5673,17 +5621,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5696,15 +5644,19 @@
           <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5718,13 +5670,13 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5744,7 +5696,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5763,13 +5715,13 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>59.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5808,13 +5760,13 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5824,14 +5776,10 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -5849,7 +5797,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O)C=C1)OC</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -5859,7 +5807,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5869,7 +5817,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5879,7 +5827,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5894,27 +5842,27 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -5935,27 +5883,27 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5965,7 +5913,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5980,17 +5928,17 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O)C=C1)OC</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6000,14 +5948,10 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -6015,7 +5959,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6025,11 +5969,11 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -6040,7 +5984,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6048,10 +5992,14 @@
           <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6066,11 +6014,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128">
@@ -6081,7 +6029,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6096,12 +6044,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6111,11 +6059,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129">
@@ -6126,7 +6074,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6141,12 +6089,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6156,11 +6104,11 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130">
@@ -6171,19 +6119,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -6201,11 +6145,11 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -6216,12 +6160,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6236,7 +6180,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6246,11 +6190,11 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -6261,18 +6205,18 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6287,11 +6231,11 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -6302,15 +6246,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -6328,7 +6276,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -6343,12 +6291,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6358,12 +6306,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6373,543 +6321,11 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>C1COCCO1</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
